--- a/test1.xlsx
+++ b/test1.xlsx
@@ -11,6 +11,15 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31,12 +40,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -357,28 +373,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
